--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Ephb1</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H2">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I2">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J2">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50463587512244</v>
+        <v>1.875567333333333</v>
       </c>
       <c r="N2">
-        <v>1.50463587512244</v>
+        <v>5.626702</v>
       </c>
       <c r="O2">
-        <v>0.9059785099995814</v>
+        <v>0.9147184316015459</v>
       </c>
       <c r="P2">
-        <v>0.9059785099995814</v>
+        <v>0.9397527619538806</v>
       </c>
       <c r="Q2">
-        <v>1.470584048538283</v>
+        <v>0.3230777265706666</v>
       </c>
       <c r="R2">
-        <v>1.470584048538283</v>
+        <v>2.907699539136</v>
       </c>
       <c r="S2">
-        <v>0.6008827289396804</v>
+        <v>0.09220347702235974</v>
       </c>
       <c r="T2">
-        <v>0.6008827289396804</v>
+        <v>0.1049627177919141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H3">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I3">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J3">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.156149517152632</v>
+        <v>0.010998</v>
       </c>
       <c r="N3">
-        <v>0.156149517152632</v>
+        <v>0.032994</v>
       </c>
       <c r="O3">
-        <v>0.09402149000041862</v>
+        <v>0.005363749481003509</v>
       </c>
       <c r="P3">
-        <v>0.09402149000041862</v>
+        <v>0.005510546431623061</v>
       </c>
       <c r="Q3">
-        <v>0.1526156546632449</v>
+        <v>0.001894471488</v>
       </c>
       <c r="R3">
-        <v>0.1526156546632449</v>
+        <v>0.017050243392</v>
       </c>
       <c r="S3">
-        <v>0.0623589730516373</v>
+        <v>0.0005406651215713464</v>
       </c>
       <c r="T3">
-        <v>0.0623589730516373</v>
+        <v>0.0006154830859758373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.496255027007284</v>
+        <v>0.172256</v>
       </c>
       <c r="H4">
-        <v>0.496255027007284</v>
+        <v>0.516768</v>
       </c>
       <c r="I4">
-        <v>0.3367582980086823</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J4">
-        <v>0.3367582980086823</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.50463587512244</v>
+        <v>0.163866</v>
       </c>
       <c r="N4">
-        <v>1.50463587512244</v>
+        <v>0.327732</v>
       </c>
       <c r="O4">
-        <v>0.9059785099995814</v>
+        <v>0.07991781891745053</v>
       </c>
       <c r="P4">
-        <v>0.9059785099995814</v>
+        <v>0.05473669161449624</v>
       </c>
       <c r="Q4">
-        <v>0.7466831168450149</v>
+        <v>0.028226901696</v>
       </c>
       <c r="R4">
-        <v>0.7466831168450149</v>
+        <v>0.169361410176</v>
       </c>
       <c r="S4">
-        <v>0.305095781059901</v>
+        <v>0.008055703838098767</v>
       </c>
       <c r="T4">
-        <v>0.305095781059901</v>
+        <v>0.006113641957114418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.036691</v>
+      </c>
+      <c r="H5">
+        <v>3.110073</v>
+      </c>
+      <c r="I5">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J5">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.626702</v>
+      </c>
+      <c r="O5">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P5">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q5">
+        <v>1.944383774360667</v>
+      </c>
+      <c r="R5">
+        <v>17.499453969246</v>
+      </c>
+      <c r="S5">
+        <v>0.5549096391288962</v>
+      </c>
+      <c r="T5">
+        <v>0.6316987789709344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.036691</v>
+      </c>
+      <c r="H6">
+        <v>3.110073</v>
+      </c>
+      <c r="I6">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J6">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.010998</v>
+      </c>
+      <c r="N6">
+        <v>0.032994</v>
+      </c>
+      <c r="O6">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P6">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q6">
+        <v>0.011401527618</v>
+      </c>
+      <c r="R6">
+        <v>0.102613748562</v>
+      </c>
+      <c r="S6">
+        <v>0.003253893423433266</v>
+      </c>
+      <c r="T6">
+        <v>0.003704171557933406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.036691</v>
+      </c>
+      <c r="H7">
+        <v>3.110073</v>
+      </c>
+      <c r="I7">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J7">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.163866</v>
+      </c>
+      <c r="N7">
+        <v>0.327732</v>
+      </c>
+      <c r="O7">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P7">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q7">
+        <v>0.169878407406</v>
+      </c>
+      <c r="R7">
+        <v>1.019270444436</v>
+      </c>
+      <c r="S7">
+        <v>0.0484817693875537</v>
+      </c>
+      <c r="T7">
+        <v>0.03679382775730833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="H5">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="I5">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="J5">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.156149517152632</v>
-      </c>
-      <c r="N5">
-        <v>0.156149517152632</v>
-      </c>
-      <c r="O5">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="P5">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="Q5">
-        <v>0.07748998285175375</v>
-      </c>
-      <c r="R5">
-        <v>0.07748998285175375</v>
-      </c>
-      <c r="S5">
-        <v>0.03166251694878132</v>
-      </c>
-      <c r="T5">
-        <v>0.03166251694878132</v>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4999445</v>
+      </c>
+      <c r="H8">
+        <v>0.999889</v>
+      </c>
+      <c r="I8">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J8">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.626702</v>
+      </c>
+      <c r="O8">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P8">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q8">
+        <v>0.9376795726796667</v>
+      </c>
+      <c r="R8">
+        <v>5.626077436078</v>
+      </c>
+      <c r="S8">
+        <v>0.2676053154502899</v>
+      </c>
+      <c r="T8">
+        <v>0.203091265191032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4999445</v>
+      </c>
+      <c r="H9">
+        <v>0.999889</v>
+      </c>
+      <c r="I9">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J9">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.010998</v>
+      </c>
+      <c r="N9">
+        <v>0.032994</v>
+      </c>
+      <c r="O9">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P9">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q9">
+        <v>0.005498389611000001</v>
+      </c>
+      <c r="R9">
+        <v>0.03299033766600001</v>
+      </c>
+      <c r="S9">
+        <v>0.001569190935998897</v>
+      </c>
+      <c r="T9">
+        <v>0.001190891787713817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4999445</v>
+      </c>
+      <c r="H10">
+        <v>0.999889</v>
+      </c>
+      <c r="I10">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J10">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.163866</v>
+      </c>
+      <c r="N10">
+        <v>0.327732</v>
+      </c>
+      <c r="O10">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P10">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q10">
+        <v>0.08192390543700001</v>
+      </c>
+      <c r="R10">
+        <v>0.327695621748</v>
+      </c>
+      <c r="S10">
+        <v>0.02338034569179808</v>
+      </c>
+      <c r="T10">
+        <v>0.01182922190007349</v>
       </c>
     </row>
   </sheetData>
